--- a/testData/FindingHospitals_TestData.xlsx
+++ b/testData/FindingHospitals_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="20">
   <si>
     <t>CityName</t>
   </si>
